--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kekeb\Documents\ESGI\5eme_annee\projet_annuel\ASCL-BACKEND\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D2BD6F-3018-45B1-AD14-2C781C30A098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5445011D-BC6B-4AD0-AE70-E1A04BDB804E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Résumé" sheetId="1" r:id="rId1"/>
@@ -40,22 +40,22 @@
     <t>Type :</t>
   </si>
   <si>
-    <t>Joueur 2</t>
-  </si>
-  <si>
     <t>Numéro</t>
   </si>
   <si>
-    <t>Joueur 1</t>
-  </si>
-  <si>
-    <t>Findes inscriptions :</t>
-  </si>
-  <si>
     <t>Fin du tournois :</t>
   </si>
   <si>
     <t>Début du tournois :</t>
+  </si>
+  <si>
+    <t>Fin des inscriptions :</t>
+  </si>
+  <si>
+    <t>Joueur 1 (Prénom NOM)</t>
+  </si>
+  <si>
+    <t>Joueur 2  (Prénom NOM)</t>
   </si>
 </sst>
 </file>
@@ -134,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -149,6 +149,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,13 +433,13 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -469,19 +470,19 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -494,25 +495,25 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kekeb\Documents\ESGI\5eme_annee\projet_annuel\ASCL-BACKEND\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5445011D-BC6B-4AD0-AE70-E1A04BDB804E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5A5229-CF00-444F-AFA3-C8260DC85F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,7 +439,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
